--- a/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK.0..TRY.OUT..Total.Pts..30.Letter...89995</t>
+    <t xml:space="preserve">TASK.0..data...quiz.links..Total.Pts..1.Score...114592</t>
   </si>
   <si>
     <t xml:space="preserve">Marking.Notes</t>
@@ -74,30 +74,48 @@
     <t xml:space="preserve">Martina </t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">ASTAT</t>
+    <t xml:space="preserve">ATSTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_gc_groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ePAxyD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1242115</t>
   </si>
   <si>
     <t xml:space="preserve">Martina</t>
   </si>
   <si>
-    <t xml:space="preserve">3groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ePAxyD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1242115</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSTAT</t>
   </si>
   <si>
     <t xml:space="preserve">iVQYPJ</t>
   </si>
   <si>
+    <t xml:space="preserve">c1243957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-23 13:54:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yXzkle</t>
+  </si>
+  <si>
     <t xml:space="preserve">q0762379</t>
   </si>
   <si>
@@ -107,7 +125,7 @@
     <t xml:space="preserve">Samson Yaekob</t>
   </si>
   <si>
-    <t xml:space="preserve">yXzkle</t>
+    <t xml:space="preserve">hPQFvR</t>
   </si>
   <si>
     <t xml:space="preserve">q1371623</t>
@@ -119,7 +137,10 @@
     <t xml:space="preserve">Alvaro</t>
   </si>
   <si>
-    <t xml:space="preserve">hPQFvR</t>
+    <t xml:space="preserve">MMENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lDLHdt</t>
   </si>
   <si>
     <t xml:space="preserve">q1411379</t>
@@ -131,10 +152,10 @@
     <t xml:space="preserve">Yuan</t>
   </si>
   <si>
-    <t xml:space="preserve">MMENG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lDLHdt</t>
+    <t xml:space="preserve">2023-08-23 10:46:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrlRAD</t>
   </si>
 </sst>
 </file>
@@ -532,9 +553,11 @@
       <c r="D2" t="n">
         <v>31206235</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -542,13 +565,13 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="n">
         <v>31206235</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
@@ -568,14 +591,16 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>31242115</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -583,13 +608,13 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="n">
         <v>31242115</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
         <v>18</v>
@@ -598,25 +623,25 @@
         <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>445993</v>
-      </c>
-      <c r="E4"/>
+        <v>31</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -624,40 +649,40 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="n">
-        <v>445993</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="M4"/>
       <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
         <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
       </c>
       <c r="P4" t="s">
         <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>50133260</v>
-      </c>
-      <c r="E5"/>
+        <v>445993</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -665,40 +690,42 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M5" t="n">
-        <v>50133260</v>
+        <v>445993</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>818343</v>
-      </c>
-      <c r="E6"/>
+        <v>50133260</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -706,22 +733,65 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="n">
+        <v>50133260</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
         <v>39</v>
-      </c>
-      <c r="M6" t="n">
-        <v>818343</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
       </c>
       <c r="P6" t="s">
         <v>23</v>
       </c>
       <c r="Q6" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>818343</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="n">
+        <v>818343</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK.0..data...quiz.links..Total.Pts..1.Score...114592</t>
+    <t xml:space="preserve">TASK0.116082023..data...quiz.links..Total.Pts..1.Score...118854</t>
   </si>
   <si>
     <t xml:space="preserve">Marking.Notes</t>
@@ -110,22 +110,40 @@
     <t xml:space="preserve">Leonard</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-23 13:54:33</t>
+    <t xml:space="preserve">2023-08-29 13:06:47</t>
   </si>
   <si>
     <t xml:space="preserve">yXzkle</t>
   </si>
   <si>
+    <t xml:space="preserve">q0328135_previewuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandebroek_PreviewUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-25 14:08:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hPQFvR</t>
+  </si>
+  <si>
     <t xml:space="preserve">q0762379</t>
   </si>
   <si>
     <t xml:space="preserve">Assele</t>
   </si>
   <si>
-    <t xml:space="preserve">Samson Yaekob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hPQFvR</t>
+    <t xml:space="preserve">Samson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-23 15:57:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lDLHdt</t>
   </si>
   <si>
     <t xml:space="preserve">q1371623</t>
@@ -137,10 +155,7 @@
     <t xml:space="preserve">Alvaro</t>
   </si>
   <si>
-    <t xml:space="preserve">MMENG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lDLHdt</t>
+    <t xml:space="preserve">PrlRAD</t>
   </si>
   <si>
     <t xml:space="preserve">q1411379</t>
@@ -155,7 +170,7 @@
     <t xml:space="preserve">2023-08-23 10:46:27</t>
   </si>
   <si>
-    <t xml:space="preserve">PrlRAD</t>
+    <t xml:space="preserve">KnybkY</t>
   </si>
 </sst>
 </file>
@@ -673,13 +688,11 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>445993</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -690,13 +703,11 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="n">
-        <v>445993</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="M5"/>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -705,24 +716,24 @@
         <v>23</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>50133260</v>
+        <v>445993</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -733,39 +744,39 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>445993</v>
+      </c>
+      <c r="N6" t="s">
         <v>41</v>
       </c>
-      <c r="M6" t="n">
-        <v>50133260</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>40</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
       </c>
       <c r="P6" t="s">
         <v>23</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>818343</v>
+        <v>50133260</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -776,22 +787,65 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M7" t="n">
-        <v>818343</v>
+        <v>50133260</v>
       </c>
       <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>45</v>
-      </c>
-      <c r="O7" t="s">
-        <v>44</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
       </c>
       <c r="Q7" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>818343</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="n">
+        <v>818343</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK0.116082023..data...quiz.links..Total.Pts..1.Score...118854</t>
+    <t xml:space="preserve">TASK0.instructions..Total.Pts..1.Score...127326</t>
   </si>
   <si>
     <t xml:space="preserve">Marking.Notes</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">Leonard</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-29 13:06:47</t>
+    <t xml:space="preserve">2023-09-07 10:21:59</t>
   </si>
   <si>
     <t xml:space="preserve">yXzkle</t>

--- a/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -35,18 +35,6 @@
     <t xml:space="preserve">TASK0.instructions..Total.Pts..1.Score...127326</t>
   </si>
   <si>
-    <t xml:space="preserve">Marking.Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes.Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feedback.to.Learner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feedback.Format</t>
-  </si>
-  <si>
     <t xml:space="preserve">Group Code</t>
   </si>
   <si>
@@ -116,61 +104,49 @@
     <t xml:space="preserve">yXzkle</t>
   </si>
   <si>
-    <t xml:space="preserve">q0328135_previewuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vandebroek_PreviewUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-25 14:08:33</t>
+    <t xml:space="preserve">q0762379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-23 15:57:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hPQFvR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q1371623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutierrez Vargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvaro</t>
   </si>
   <si>
     <t xml:space="preserve">MMENG</t>
   </si>
   <si>
-    <t xml:space="preserve">hPQFvR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q0762379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-23 15:57:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">lDLHdt</t>
   </si>
   <si>
-    <t xml:space="preserve">q1371623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gutierrez Vargas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvaro</t>
+    <t xml:space="preserve">q1411379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-23 10:46:27</t>
   </si>
   <si>
     <t xml:space="preserve">PrlRAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q1411379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-23 10:46:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KnybkY</t>
   </si>
 </sst>
 </file>
@@ -542,310 +518,235 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>31206235</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31206235</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31206235</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
         <v>31242115</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31242115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
       <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="n">
-        <v>31242115</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4"/>
-      <c r="H4"/>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
       <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
       <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>445993</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="n">
+        <v>445993</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50133260</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50133260</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="n">
-        <v>445993</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="n">
-        <v>445993</v>
-      </c>
-      <c r="N6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>818343</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="n">
+        <v>818343</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50133260</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="n">
-        <v>50133260</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>818343</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" t="n">
-        <v>818343</v>
-      </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/user_info with coding.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -32,7 +32,19 @@
     <t xml:space="preserve">Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK0.instructions..Total.Pts..1.Score...127326</t>
+    <t xml:space="preserve">TASK0.instructions..Total.Pts..1.Score...130753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marking.Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes.Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback.to.Learner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback.Format</t>
   </si>
   <si>
     <t xml:space="preserve">Group Code</t>
@@ -518,235 +530,273 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
         <v>31206235</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2"/>
-      <c r="H2" t="s">
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31206235</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="n">
-        <v>31206235</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>31242115</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3"/>
-      <c r="H3" t="s">
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>31242115</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="n">
-        <v>31242115</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
+      <c r="Q3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31243957</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
         <v>23</v>
       </c>
-      <c r="I4"/>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
+      <c r="Q4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
         <v>445993</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5"/>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="n">
         <v>445993</v>
       </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
         <v>50133260</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G6"/>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="n">
         <v>50133260</v>
       </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
         <v>818343</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7"/>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="n">
         <v>818343</v>
       </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
-        <v>44</v>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
